--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npawelka\Desktop\repo\Home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA399A9-FCA0-4530-BA85-C4CC883E499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122931A-E709-465B-9E81-07AE25F934FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C14" s="17">
         <f>März!L3</f>
-        <v>0.37499999999999978</v>
+        <v>0.30833333333333313</v>
       </c>
       <c r="D14" s="1">
         <f>März!L7</f>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C25" s="18">
         <f>SUM(C12:C23)+C4</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="D25" s="13">
         <f>SUM(D12:D23)</f>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>45</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -12623,7 +12623,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12730,7 +12730,7 @@
       </c>
       <c r="L3" s="17">
         <f>I34</f>
-        <v>0.37499999999999978</v>
+        <v>0.30833333333333313</v>
       </c>
       <c r="O3" s="23" t="s">
         <v>43</v>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -13203,16 +13203,22 @@
       <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="E19" s="16">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="1"/>
+        <v>0.23333333333333331</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -13223,20 +13229,23 @@
         <f t="shared" si="2"/>
         <v>Dienstag</v>
       </c>
-      <c r="D20" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Arbeit</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="I20" s="17">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -13271,20 +13280,23 @@
         <f t="shared" si="2"/>
         <v>Donnerstag</v>
       </c>
-      <c r="D22" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Arbeit</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="I22" s="17">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -13295,20 +13307,23 @@
         <f t="shared" si="2"/>
         <v>Freitag</v>
       </c>
-      <c r="D23" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Arbeit</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="I23" s="17">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -13536,15 +13551,15 @@
       <c r="F34" s="26"/>
       <c r="G34" s="29">
         <f>SUM(G2:G32)</f>
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H34" s="29">
         <f>SUM(H2:H32)</f>
-        <v>1.3749999999999998</v>
+        <v>1.708333333333333</v>
       </c>
       <c r="I34" s="28">
         <f>SUM(I2:I32)</f>
-        <v>0.37499999999999978</v>
+        <v>0.30833333333333313</v>
       </c>
     </row>
   </sheetData>
@@ -13771,7 +13786,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -14682,7 +14697,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -15618,7 +15633,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -16529,7 +16544,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -17464,7 +17479,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0.36041666666666644</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npawelka\Desktop\repo\Home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122931A-E709-465B-9E81-07AE25F934FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7676E077-823E-4301-AA2B-39BAEA4BF791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C14" s="17">
         <f>März!L3</f>
-        <v>0.30833333333333313</v>
+        <v>0.31874999999999976</v>
       </c>
       <c r="D14" s="1">
         <f>März!L7</f>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C25" s="18">
         <f>SUM(C12:C23)+C4</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="D25" s="13">
         <f>SUM(D12:D23)</f>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>45</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -12623,7 +12623,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12730,7 +12730,7 @@
       </c>
       <c r="L3" s="17">
         <f>I34</f>
-        <v>0.30833333333333313</v>
+        <v>0.31874999999999976</v>
       </c>
       <c r="O3" s="23" t="s">
         <v>43</v>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -13207,18 +13207,18 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="F19" s="16">
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="G19" s="16">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.34374999999999994</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" si="1"/>
-        <v>0.23333333333333331</v>
+        <v>0.24374999999999994</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -13555,11 +13555,11 @@
       </c>
       <c r="H34" s="29">
         <f>SUM(H2:H32)</f>
-        <v>1.708333333333333</v>
+        <v>1.7187499999999998</v>
       </c>
       <c r="I34" s="28">
         <f>SUM(I2:I32)</f>
-        <v>0.30833333333333313</v>
+        <v>0.31874999999999976</v>
       </c>
     </row>
   </sheetData>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -16544,7 +16544,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -17479,7 +17479,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.36041666666666644</v>
+        <v>0.37083333333333307</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
